--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9D7F69-4C14-4FB2-8476-93EA0514B434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723072B3-6274-485C-921C-12C6A2875443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>GTK</t>
   </si>
@@ -105,10 +105,82 @@
     <t>PWM Setting</t>
   </si>
   <si>
-    <t>Frequency(MHz)</t>
-  </si>
-  <si>
     <t>Prescaler</t>
+  </si>
+  <si>
+    <t>Counter Period</t>
+  </si>
+  <si>
+    <t>PWM Output</t>
+  </si>
+  <si>
+    <t>https://qiita.com/ShunHattori/items/68f099f1d77702d2535d</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>https://community.st.com/t5/stm32-mcus/how-to-use-stlink-v3-mco-output-on-nucleo-boards-as-a-precise/ta-p/723361</t>
+  </si>
+  <si>
+    <t>ISR?(Cortex M3)</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/16656489/safely-detect-if-function-is-called-from-an-isr</t>
+  </si>
+  <si>
+    <t>https://www.renesas.com/en/document/mah/idt-arm-cortex-m0-user-guide</t>
+  </si>
+  <si>
+    <t>CubeIDE(Split peripherals)</t>
+  </si>
+  <si>
+    <t>https://community.st.com/t5/stm32cubemx-mcus/is-it-possible-to-automatically-separate-the-code-generated-by/td-p/71174</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>RAM(KB)</t>
+  </si>
+  <si>
+    <t>ROM(KB)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>gts_feature.h</t>
+  </si>
+  <si>
+    <t>GTK_SC_PERIPHERALS [SHA-1: 3deb3aa8da26ad4805db492b78408d75ca17b15b]</t>
+  </si>
+  <si>
+    <t>GTK_SC_BASE [SHA-1: 74b4d3d425f102277975e83fb277a20295cfb6da]</t>
+  </si>
+  <si>
+    <t>GTK_SC_PERIPHERALS Implemented [SHA-1: 3deb3aa8da26ad4805db492b78408d75ca17b15b]</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>https://qiita.com/numeru55/items/fd61922eeec6be62a22a</t>
+  </si>
+  <si>
+    <t>Measure execution time</t>
+  </si>
+  <si>
+    <t>https://www.iar.com/knowledge/learn/debugging/techniques-for-measuring-the-elapsed-timeew-page/</t>
+  </si>
+  <si>
+    <t>Frequency(Hz)</t>
   </si>
   <si>
     <r>
@@ -135,113 +207,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(KHz)</t>
+      <t>(Hz)</t>
     </r>
   </si>
   <si>
-    <t>Counter Period</t>
-  </si>
-  <si>
-    <t>PWM Output</t>
-  </si>
-  <si>
-    <t>https://qiita.com/ShunHattori/items/68f099f1d77702d2535d</t>
-  </si>
-  <si>
-    <t>Clock</t>
-  </si>
-  <si>
-    <t>https://community.st.com/t5/stm32-mcus/how-to-use-stlink-v3-mco-output-on-nucleo-boards-as-a-precise/ta-p/723361</t>
-  </si>
-  <si>
-    <t>ISR?(Cortex M3)</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/16656489/safely-detect-if-function-is-called-from-an-isr</t>
-  </si>
-  <si>
-    <t>https://www.renesas.com/en/document/mah/idt-arm-cortex-m0-user-guide</t>
-  </si>
-  <si>
-    <t>CubeIDE(Split peripherals)</t>
-  </si>
-  <si>
-    <t>https://community.st.com/t5/stm32cubemx-mcus/is-it-possible-to-automatically-separate-the-code-generated-by/td-p/71174</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>RAM(KB)</t>
-  </si>
-  <si>
-    <t>ROM(KB)</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>gts_feature.h</t>
-  </si>
-  <si>
-    <t>GTK_SC_PERIPHERALS [SHA-1: 3deb3aa8da26ad4805db492b78408d75ca17b15b]</t>
-  </si>
-  <si>
-    <t>GTK_SC_BASE [SHA-1: 74b4d3d425f102277975e83fb277a20295cfb6da]</t>
-  </si>
-  <si>
-    <t>GTK_SC_PERIPHERALS Implemented [SHA-1: 3deb3aa8da26ad4805db492b78408d75ca17b15b]</t>
-  </si>
-  <si>
-    <t>UART</t>
-  </si>
-  <si>
-    <t>https://qiita.com/numeru55/items/fd61922eeec6be62a22a</t>
-  </si>
-  <si>
-    <t>Measure execution time</t>
-  </si>
-  <si>
-    <t>https://www.iar.com/knowledge/learn/debugging/techniques-for-measuring-the-elapsed-timeew-page/</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[0]</t>
-  </si>
-  <si>
-    <t>unsigned long</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[1]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[2]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[3]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[4]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[5]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[6]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[7]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[8]</t>
-  </si>
-  <si>
-    <t>u32Tick22_1u[9]</t>
+    <t>1ms</t>
+  </si>
+  <si>
+    <t>1us</t>
   </si>
 </sst>
 </file>
@@ -878,7 +851,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -952,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F88CA-E307-47AA-93AB-8788864B7E3B}">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,205 +939,138 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <f>32*1000*1000</f>
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C10/(C13+1)/(C11+1)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3">
-        <f>$C$10*1000*1000/($C$13+1)/($C$11+1)</f>
-        <v>14.796401515151516</v>
-      </c>
-      <c r="D12">
-        <f>1/C12</f>
-        <v>6.7583999999999991E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="3">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <f>32*1000*1000</f>
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C16/(C19+1)/(C17+1)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3">
+        <f>32*1000*1000</f>
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3">
+        <f>C22/(C25+1)/(C23+1)</f>
+        <v>15.2587890625</v>
+      </c>
+      <c r="D24">
+        <f>1/C24</f>
+        <v>6.5535999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3">
         <v>65535</v>
       </c>
-      <c r="D13">
-        <f>D12/C13</f>
-        <v>1.0312657358663308E-6</v>
-      </c>
-      <c r="E13">
-        <f>D13*1000</f>
-        <v>1.0312657358663307E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>F24-F23</f>
-        <v>972</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24">
-        <v>972</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G32" si="0">F25-F24</f>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25">
-        <v>1942</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26">
-        <v>2912</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>969</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27">
-        <v>3881</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28">
-        <v>4851</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29">
-        <v>5821</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>969</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30">
-        <v>6790</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31">
-        <v>7760</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32">
-        <v>8730</v>
+      <c r="D25">
+        <f>D24/C25</f>
+        <v>1.0000152590218966E-6</v>
+      </c>
+      <c r="E25">
+        <f>D25*1000</f>
+        <v>1.0000152590218965E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1195,27 +1101,27 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1234,7 +1140,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1260,27 +1166,27 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
         <f>D4</f>
@@ -1300,7 +1206,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3">
         <f>D5</f>
@@ -1320,27 +1226,27 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3">
         <f>D9</f>
@@ -1360,7 +1266,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
         <f>D10</f>
@@ -1399,55 +1305,55 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723072B3-6274-485C-921C-12C6A2875443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D61E9-3134-4721-B9CF-F4B2DB2BC7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>GTK</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>1us</t>
+  </si>
+  <si>
+    <t>ISR/Thread</t>
+  </si>
+  <si>
+    <t>ICSR[0..9] M0+</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F88CA-E307-47AA-93AB-8788864B7E3B}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1292,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB75EB0-4C9A-4A63-B70A-F5FCA9A84744}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,6 +1360,14 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\GSL\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D61E9-3134-4721-B9CF-F4B2DB2BC7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEADD7A7-A64D-49E9-90EA-5277192A8320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder" sheetId="1" r:id="rId1"/>
     <sheet name="PWM" sheetId="2" r:id="rId2"/>
     <sheet name="Resources" sheetId="4" r:id="rId3"/>
     <sheet name="Links" sheetId="3" r:id="rId4"/>
+    <sheet name="ETC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>GTK</t>
   </si>
@@ -192,7 +193,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,7 +204,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,16 +223,44 @@
   <si>
     <t>ICSR[0..9] M0+</t>
   </si>
+  <si>
+    <t>U32</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -248,7 +277,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -256,8 +285,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,15 +384,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -807,21 +839,21 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -829,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -837,12 +869,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -850,17 +882,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -871,17 +903,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -889,17 +921,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -907,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -925,7 +957,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -933,29 +967,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F88CA-E307-47AA-93AB-8788864B7E3B}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
@@ -964,7 +998,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -972,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
@@ -981,7 +1015,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -989,12 +1023,12 @@
         <v>31999</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1003,7 +1037,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1045,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -1019,21 +1053,33 @@
         <f>C16/(C19+1)/(C17+1)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>1/C18</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>D18/C19</f>
+        <v>1.1111111111111112E-4</v>
+      </c>
+      <c r="E19">
+        <f>D19*1000</f>
+        <v>0.11111111111111112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1042,7 +1088,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1050,7 +1096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1063,7 +1109,7 @@
         <v>6.5535999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1080,6 +1126,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1094,23 +1141,23 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="7" t="s">
         <v>36</v>
@@ -1125,7 +1172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1191,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
@@ -1163,19 +1210,16 @@
         <v>0.15406249999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -1190,7 +1234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1210,7 +1254,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1230,12 +1274,12 @@
         <v>0.21984375</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
         <v>36</v>
@@ -1250,7 +1294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1314,7 @@
         <v>0.24374999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1291,6 +1335,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1300,16 +1345,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB75EB0-4C9A-4A63-B70A-F5FCA9A84744}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1317,7 +1362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1325,7 +1370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1333,12 +1378,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -1346,7 +1391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -1354,7 +1399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -1362,7 +1407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -1371,6 +1416,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EA9B5D05-DBFA-4C86-8668-AFCCB06ECA01}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{14BA6434-DA56-48ED-A571-2C6F9634E2B9}"/>
@@ -1382,4 +1428,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2602AF2B-4CA4-4F72-9D8E-10355B2C37E6}">
+  <dimension ref="B2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <f>POWER(2,32)</f>
+        <v>4294967296</v>
+      </c>
+      <c r="C3">
+        <f>B3/1000</f>
+        <v>4294967.2960000001</v>
+      </c>
+      <c r="D3">
+        <f>C3/1000</f>
+        <v>4294.9672959999998</v>
+      </c>
+      <c r="E3">
+        <f>D3/60</f>
+        <v>71.582788266666668</v>
+      </c>
+      <c r="F3">
+        <f>E3/60</f>
+        <v>1.1930464711111111</v>
+      </c>
+      <c r="G3">
+        <f>F3/24</f>
+        <v>4.9710269629629628E-2</v>
+      </c>
+      <c r="H3">
+        <f>G3/365</f>
+        <v>1.3619251953323185E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEADD7A7-A64D-49E9-90EA-5277192A8320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3462F-55D6-49DE-9BC8-7621007FDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>GTK</t>
   </si>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Show column number in Eclipse</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/58509117/eclipse-2019-09-cant-see-the-current-column-number-in-the-status-bar</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -967,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F88CA-E307-47AA-93AB-8788864B7E3B}">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1343,15 +1351,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB75EB0-4C9A-4A63-B70A-F5FCA9A84744}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
@@ -1413,6 +1421,14 @@
       </c>
       <c r="C9" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1425,6 +1441,7 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{4AF43171-CF2D-4D19-9DC6-2A9210B687F0}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{57312641-F60D-479E-8B57-32AD05A48493}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{C9AD98B4-2308-428D-9C5F-63CDC4B0A51A}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{4A84AC4D-07CC-4355-9C15-6CA842856DB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3462F-55D6-49DE-9BC8-7621007FDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5804F-364D-4D2A-8A6C-3AB0760FB19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>GTK</t>
   </si>
@@ -257,6 +257,42 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/58509117/eclipse-2019-09-cant-see-the-current-column-number-in-the-status-bar</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>U64</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>us</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>divide</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>day</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1353,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB75EB0-4C9A-4A63-B70A-F5FCA9A84744}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1449,16 +1485,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2602AF2B-4CA4-4F72-9D8E-10355B2C37E6}">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
@@ -1514,8 +1550,135 @@
         <v>1.3619251953323185E-4</v>
       </c>
     </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f>POWER(2,64)</f>
+        <v>1.8446744073709552E+19</v>
+      </c>
+      <c r="C6">
+        <f>B6/1000</f>
+        <v>1.8446744073709552E+16</v>
+      </c>
+      <c r="D6">
+        <f>C6/1000</f>
+        <v>18446744073709.551</v>
+      </c>
+      <c r="E6">
+        <f>D6/60</f>
+        <v>307445734561.82587</v>
+      </c>
+      <c r="F6">
+        <f>E6/60</f>
+        <v>5124095576.0304308</v>
+      </c>
+      <c r="G6">
+        <f>F6/24</f>
+        <v>213503982.33460128</v>
+      </c>
+      <c r="H6">
+        <f>G6/365</f>
+        <v>584942.41735507199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>C9*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <f>C10*D10</f>
+        <v>60000000</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <f>C11*D11</f>
+        <v>3600000000</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <f>C12*D12</f>
+        <v>86400000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5804F-364D-4D2A-8A6C-3AB0760FB19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B7B87-1884-44AD-A381-AF2068E17229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder" sheetId="1" r:id="rId1"/>
     <sheet name="PWM" sheetId="2" r:id="rId2"/>
     <sheet name="Resources" sheetId="4" r:id="rId3"/>
-    <sheet name="Links" sheetId="3" r:id="rId4"/>
-    <sheet name="ETC" sheetId="5" r:id="rId5"/>
+    <sheet name="SwRS" sheetId="6" r:id="rId4"/>
+    <sheet name="PackageDiagram" sheetId="7" r:id="rId5"/>
+    <sheet name="Links" sheetId="3" r:id="rId6"/>
+    <sheet name="ETC" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
-  <si>
-    <t>GTK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>GTS</t>
   </si>
@@ -295,12 +294,128 @@
     <t>day</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>Software block diagram.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GSL</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>UA</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CONFIG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PSM_PRD_BSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BSM_MCCP_B[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BSM_PRD_B[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BSM_THN_B[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BSM_NAME_B[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>enuGslBsmEventCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PSM_PRD_LSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LSM_NAME_L[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LSM_PRD_B[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LSM_BSM_TYPE_L[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LSM_FI_TMO_L[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LSM_FO_TMO_L[0..4]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>enuGslLsmEventCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidGslLsmOutputCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>enuGslLsmPwmMinCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>enuGslLsmPwmMaxCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PSM_PRD_DSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidGslInitCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidGslSrvcCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidGslProcCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>enuGslBsmNotifyCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidGslDiagElapsedCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,8 +455,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,8 +499,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -395,12 +552,186 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,6 +765,119 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,6 +1003,3397 @@
         <a:xfrm>
           <a:off x="4400550" y="381000"/>
           <a:ext cx="3190875" cy="935618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20291</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604629</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF15AB7-5912-9F3D-2181-E240ECB849D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="707748" y="839028"/>
+          <a:ext cx="7458903" cy="4337602"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="7305675" cy="3724275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC78C68-3E36-4B02-EA71-7B75CDADFA81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="7305675" cy="3724275"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 8500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="四角形: 角を丸くする 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2809C988-BADB-3AAE-AF6B-C4A927295D7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="92718" y="92718"/>
+            <a:ext cx="7120239" cy="3538839"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="2890451" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="sng" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>User Application</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260083</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78290</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624EB128-1C4C-56F9-D0EB-232684555988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="947540" y="1776308"/>
+          <a:ext cx="916057" cy="554852"/>
+          <a:chOff x="182641" y="931068"/>
+          <a:chExt cx="1095851" cy="631380"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858AF276-161E-2893-CF50-C6E2CB8FD506}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="182641" y="931068"/>
+            <a:ext cx="1095851" cy="631380"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="四角形: 角を丸くする 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8FB0CB-F045-4AF6-5E65-C6F5627FB242}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="202058" y="950485"/>
+            <a:ext cx="1057017" cy="592546"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>App</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Callback</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260083</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21836</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C80A97-2723-1698-78FA-B92FFD3BBFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="947540" y="2440441"/>
+          <a:ext cx="916057" cy="554852"/>
+          <a:chOff x="182641" y="1588989"/>
+          <a:chExt cx="1095851" cy="631380"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="四角形: 角を丸くする 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7312C15A-F3A4-7332-359A-845B6E341483}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="182641" y="1588989"/>
+            <a:ext cx="1095851" cy="631380"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="四角形: 角を丸くする 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67046E37-E821-B434-FBDC-941EB45DF97B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="202058" y="1608406"/>
+            <a:ext cx="1057017" cy="592546"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>App</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Entry</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260083</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>203508</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C8358C-A0E2-3130-37F1-99AD4CA348D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="947540" y="3104575"/>
+          <a:ext cx="916057" cy="552781"/>
+          <a:chOff x="182641" y="2246911"/>
+          <a:chExt cx="1095851" cy="631380"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E731615-A7AA-7085-99E9-5469DEB2D8A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="182641" y="2246911"/>
+            <a:ext cx="1095851" cy="631380"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="四角形: 角を丸くする 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDBC838-528E-A251-C7A0-71E979D5B04C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="202058" y="2266328"/>
+            <a:ext cx="1057017" cy="592546"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>App</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>260083</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147054</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B298C77F-3B8B-125A-407C-F2DE975FD22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="947540" y="3768708"/>
+          <a:ext cx="916057" cy="552781"/>
+          <a:chOff x="182641" y="2904832"/>
+          <a:chExt cx="1095851" cy="631380"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0598BC-1089-D147-824B-3552E33E5E76}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="182641" y="2904832"/>
+            <a:ext cx="1095851" cy="631380"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="四角形: 角を丸くする 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A479C09-4E41-5F68-8E16-0091CC889E3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="202058" y="2924249"/>
+            <a:ext cx="1057017" cy="592546"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>App</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>ISR</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191741</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>231642</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93857055-0EE2-1543-E40E-9DB6B93E5CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2254111" y="1776308"/>
+          <a:ext cx="5593235" cy="2629769"/>
+          <a:chOff x="1461135" y="931068"/>
+          <a:chExt cx="5661898" cy="2606992"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF8BCBD-56E7-08AA-CB47-10BED1FC254C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1461135" y="931068"/>
+            <a:ext cx="5661898" cy="2606992"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="四角形: 角を丸くする 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284D4580-12A4-B0C3-EC25-F1A3C6CA0695}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1541309" y="1011242"/>
+            <a:ext cx="5501550" cy="2446644"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="1655440" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="sng" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>GSL</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93483</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA97137A-0C3F-C94F-B38A-FDDEB1E0205A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2447094" y="2697039"/>
+          <a:ext cx="916057" cy="369901"/>
+          <a:chOff x="1602682" y="1843516"/>
+          <a:chExt cx="1132379" cy="475763"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46380003-1407-3E1E-0068-4110DA0498F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1602682" y="1843516"/>
+            <a:ext cx="1132379" cy="475763"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="四角形: 角を丸くする 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3268112-002C-E7B3-0234-2EB5D42EE004}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1617313" y="1858147"/>
+            <a:ext cx="1103117" cy="446501"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="45720" tIns="45720" rIns="45720" bIns="45720" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" u="none" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>CONFIG</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="none" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>224328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113838</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825445CF-7D89-8169-9A0F-DC87946B7FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2447094" y="3197785"/>
+          <a:ext cx="916057" cy="369901"/>
+          <a:chOff x="1602682" y="2354059"/>
+          <a:chExt cx="1132379" cy="475763"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A377A7B9-3FE2-481A-4809-E81A982755CA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1602682" y="2354059"/>
+            <a:ext cx="1132379" cy="475763"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="四角形: 角を丸くする 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D480D2-2A9C-48DF-F60B-9D779E58266C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1617313" y="2368690"/>
+            <a:ext cx="1103117" cy="446501"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="45720" tIns="45720" rIns="45720" bIns="45720" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" u="none" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>API</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="none" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162071</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA5F9E8-DF92-A41F-52BF-6BB8D249C1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2447094" y="3728479"/>
+          <a:ext cx="916057" cy="367831"/>
+          <a:chOff x="1602682" y="2864603"/>
+          <a:chExt cx="1132379" cy="475763"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="四角形: 角を丸くする 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A5E42E-052F-3D68-1460-FA582F5E8093}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1602682" y="2864603"/>
+            <a:ext cx="1132379" cy="475763"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="四角形: 角を丸くする 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0969A0-9D66-FCA7-D1CF-1310F2CFC82E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1617313" y="2879234"/>
+            <a:ext cx="1103117" cy="446501"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="45720" tIns="45720" rIns="45720" bIns="45720" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1" u="none" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>GSL</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" u="none" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>187660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102682</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45429</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DD6270-43FF-8D3C-DAA4-EC363D64CD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3624943" y="2715660"/>
+          <a:ext cx="4039761" cy="1504204"/>
+          <a:chOff x="2885741" y="1862137"/>
+          <a:chExt cx="4054649" cy="1489710"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5FC5FD-6FF1-E405-7AD3-6380DB087677}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2885741" y="1862137"/>
+            <a:ext cx="4054649" cy="1489710"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="四角形: 角を丸くする 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB5F0D4-D2ED-7EAE-598E-1045B8DE489B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2931555" y="1907951"/>
+            <a:ext cx="3963021" cy="1398082"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="76200" tIns="76200" rIns="76200" bIns="840859" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="sng" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Libs</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="sng" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313186</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313187</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12855</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4438A7CF-BE61-C850-A259-83D573B00926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3750469" y="3392242"/>
+          <a:ext cx="687457" cy="554852"/>
+          <a:chOff x="2987107" y="2532507"/>
+          <a:chExt cx="752327" cy="670369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D3D66E-2155-9B62-B6CA-AA2D76FB65D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2987107" y="2532507"/>
+            <a:ext cx="752327" cy="670369"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="四角形: 角を丸くする 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9505E6-5F03-7B66-8001-0D68D92366AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3007723" y="2553123"/>
+            <a:ext cx="711095" cy="629137"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>NOOS</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401118</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401117</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12855</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3EDF61-A04A-1536-3ACC-2618A2929A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4525857" y="3392242"/>
+          <a:ext cx="687456" cy="554852"/>
+          <a:chOff x="3760838" y="2532507"/>
+          <a:chExt cx="752327" cy="670369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4CD0A-F573-3039-63DD-6A409E0348EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3760838" y="2532507"/>
+            <a:ext cx="752327" cy="670369"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C38396-F0FF-F31B-F8D6-611AFAE3B507}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3781454" y="2553123"/>
+            <a:ext cx="711095" cy="629137"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>XSM</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>489048</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12855</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6DC973-39B8-F2E0-03C6-1DA65DE98A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5301244" y="3392242"/>
+          <a:ext cx="687457" cy="554852"/>
+          <a:chOff x="4534569" y="2532507"/>
+          <a:chExt cx="752327" cy="670369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CBB8C8-709A-2FD5-54A6-AF0843A20985}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4534569" y="2532507"/>
+            <a:ext cx="752327" cy="670369"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="四角形: 角を丸くする 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D06D75-BA65-6B5A-0D3D-A2774A2AA079}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4555185" y="2553123"/>
+            <a:ext cx="711095" cy="629137"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>XPM</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576979</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12855</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8067522-6CF7-9D50-5038-01C8B7987C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6076632" y="3392242"/>
+          <a:ext cx="687456" cy="554852"/>
+          <a:chOff x="5308300" y="2532507"/>
+          <a:chExt cx="752327" cy="670369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B127029-9018-2BEE-1D57-DA2CEE4C14F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5308300" y="2532507"/>
+            <a:ext cx="752327" cy="670369"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="四角形: 角を丸くする 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA91944F-9CC0-C5BB-D01E-C1C7B4789552}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5328916" y="2553123"/>
+            <a:ext cx="711095" cy="629137"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>QUEUE</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>664910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>664911</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12855</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CD4A7B-E19C-7639-9193-04B17769B4D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6852019" y="3392242"/>
+          <a:ext cx="687457" cy="554852"/>
+          <a:chOff x="6082031" y="2532507"/>
+          <a:chExt cx="752327" cy="670369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD74B28B-F459-F7CF-0BA5-7A0F297D4EA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6082031" y="2532507"/>
+            <a:ext cx="752327" cy="670369"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="四角形: 角を丸くする 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B59843-44B2-DEB5-2143-8EDB4328226C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6102647" y="2553123"/>
+            <a:ext cx="711095" cy="629137"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DIAG</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384724</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="コネクタ: カギ線 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61832A0-BBEA-5AC2-BB32-06413D293D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863597" y="2054770"/>
+          <a:ext cx="583497" cy="827220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>223186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A9FEE3-932F-466A-BEAB-DE18828851A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863597" y="2716251"/>
+          <a:ext cx="595336" cy="666486"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36737"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396528</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E82531-0414-45B6-A83B-201193A9E9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863597" y="3380966"/>
+          <a:ext cx="595301" cy="1769"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155766</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155766</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7A5B5A-CE52-46FA-A12D-51528BC17A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="0"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2905592" y="3567686"/>
+          <a:ext cx="0" cy="160793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488684</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396539</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA598683-4BAB-439C-9D6C-89D8448D447C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1863597" y="3382736"/>
+          <a:ext cx="595312" cy="662363"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36247"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601512</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58218</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="コネクタ: カギ線 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D0E51C-64EB-43CA-B6FF-843288A7911D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="37" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3855750" y="2377578"/>
+          <a:ext cx="510252" cy="1519076"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>322011</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1243C114-0D51-46C0-A852-EE018155CCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="0"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4703662" y="899328"/>
+          <a:ext cx="695203" cy="4290625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 132983"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>187660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>217997</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="コネクタ: カギ線 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B699ACB-C0A8-4607-96B0-546A00B8D93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3363151" y="3468117"/>
+          <a:ext cx="261792" cy="443923"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280966</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>206501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>207061</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="コネクタ: カギ線 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D6485D-D2FF-4DAF-A30E-7F5E017BB234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="968423" y="4621131"/>
+          <a:ext cx="853166" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285336</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>451046</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="コネクタ: カギ線 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FFC205-574B-4FBC-9CE0-D791B504A369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="972793" y="4831245"/>
+          <a:ext cx="853166" cy="560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447257</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74546</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="813813" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="テキスト ボックス 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89248016-21D8-2A99-1226-0DB16D966C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1822170" y="4489176"/>
+          <a:ext cx="813813" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Implement</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44728</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1102225" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52877E9-1A41-4CC2-8A21-44CEF7048A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1817201" y="4699554"/>
+          <a:ext cx="1102225" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Reference / Use</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E68E5B-5EEB-8194-7800-236C49F2FE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7200900" y="381000"/>
+          <a:ext cx="5972175" cy="9915525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,7 +4715,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -893,111 +4728,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
         <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1025,17 +4860,17 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3">
         <f>32*1000*1000</f>
@@ -1044,7 +4879,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1052,7 +4887,7 @@
     </row>
     <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
         <f>C10/(C13+1)/(C11+1)</f>
@@ -1061,7 +4896,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>31999</v>
@@ -1069,12 +4904,12 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3">
         <f>32*1000*1000</f>
@@ -1083,7 +4918,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3">
         <v>3199</v>
@@ -1091,7 +4926,7 @@
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <f>C16/(C19+1)/(C17+1)</f>
@@ -1104,7 +4939,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
@@ -1120,12 +4955,12 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <f>32*1000*1000</f>
@@ -1134,7 +4969,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3">
         <v>31</v>
@@ -1142,7 +4977,7 @@
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3">
         <f>C22/(C25+1)/(C23+1)</f>
@@ -1155,7 +4990,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3">
         <v>65535</v>
@@ -1198,27 +5033,27 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1237,7 +5072,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1260,27 +5095,27 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
         <f>D4</f>
@@ -1300,7 +5135,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3">
         <f>D5</f>
@@ -1320,27 +5155,27 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <f>D9</f>
@@ -1360,7 +5195,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <f>D10</f>
@@ -1386,6 +5221,884 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D89BDA-6F4E-4ADC-8ADD-F95175949E09}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202F9C68-BA9B-415A-B4F6-E6F10680B109}">
+  <dimension ref="C3:S56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="5" width="3.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="18" customWidth="1"/>
+    <col min="8" max="9" width="3.625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="1.625" style="18" customWidth="1"/>
+    <col min="11" max="19" width="3.625" style="18" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C3" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="20"/>
+      <c r="K3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="20"/>
+      <c r="Q3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="48"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="G9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="G11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="G13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="54"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="Q18" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="48"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="G21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="51"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="G23" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="51"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="40"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="51"/>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="51"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="G31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="40"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="51"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="51"/>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="G33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="40"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="51"/>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="51"/>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="G35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="40"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="51"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="51"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="G37" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="40"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="51"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="54"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="24"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="40"/>
+      <c r="Q40" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="R40" s="48"/>
+      <c r="S40" s="20"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="G41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" s="38"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="40"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="51"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="51"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="K44" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="37"/>
+      <c r="M44" s="20"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="I45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="38"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="40"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="40"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="I47" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="38"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="40"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="40"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="I49" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="40"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="40"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="I51" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="40"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="40"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="I53" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="40"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="40"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB75EB0-4C9A-4A63-B70A-F5FCA9A84744}">
   <dimension ref="B2:C10"/>
   <sheetViews>
@@ -1400,71 +6113,71 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1483,11 +6196,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2602AF2B-4CA4-4F72-9D8E-10355B2C37E6}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1499,25 +6212,25 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
@@ -1552,25 +6265,25 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>61</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -1605,15 +6318,15 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -1621,7 +6334,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <f>1000</f>
@@ -1633,7 +6346,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <f>C9*1000</f>
@@ -1645,7 +6358,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <f>C10*D10</f>
@@ -1657,7 +6370,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <f>C11*D11</f>
@@ -1669,7 +6382,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <f>C12*D12</f>

--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B7B87-1884-44AD-A381-AF2068E17229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27206E1-D209-4FBD-BAA5-8786858E9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
   <si>
     <t>GTS</t>
   </si>
@@ -408,6 +408,106 @@
   </si>
   <si>
     <t>vidGslDiagElapsedCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PSM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidPsmInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidPsmSrvc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BPM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidBpmInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidBpmProc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>QUEUE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DIAG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidQueInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>enuBsmNotifyCallback</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagTusAccumulate</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidBsmInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidBsmSrvc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDsmInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDsmSrvc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidLsmInit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidLsmSrvc</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagTrace</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagKeepAlive</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidDiagTusStart</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u32DiagTusElapsed</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pstrPsmKeepAlive</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidQueEnque</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>vidQueDeque</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -486,7 +586,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -786,9 +892,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,7 +904,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,7 +934,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,7 +967,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,6 +980,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4349,72 +4512,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E68E5B-5EEB-8194-7800-236C49F2FE8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7200900" y="381000"/>
-          <a:ext cx="5972175" cy="9915525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5245,856 +5342,1511 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202F9C68-BA9B-415A-B4F6-E6F10680B109}">
-  <dimension ref="C3:S56"/>
+  <dimension ref="C3:AN112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO108" sqref="AO107:AO108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="3.625" style="18" customWidth="1"/>
     <col min="6" max="6" width="1.625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3.625" style="18" customWidth="1"/>
     <col min="10" max="10" width="1.625" style="18" customWidth="1"/>
-    <col min="11" max="19" width="3.625" style="18" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="18"/>
+    <col min="11" max="13" width="3.625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="1.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="3.625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="1.625" style="18" customWidth="1"/>
+    <col min="24" max="36" width="3.625" style="18" customWidth="1"/>
+    <col min="37" max="37" width="1.625" style="18" customWidth="1"/>
+    <col min="38" max="41" width="3.625" style="18" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="20"/>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="37"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="20"/>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="48"/>
+      <c r="R3" s="47"/>
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="G5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="51"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="21"/>
       <c r="O6" s="22"/>
       <c r="P6" s="23"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="51"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="G7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
       <c r="P8" s="23"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="51"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
       <c r="G9" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="51"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
       <c r="P10" s="23"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
       <c r="G11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="51"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
       <c r="P12" s="23"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
       <c r="G13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
       <c r="P14" s="23"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="51"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
       <c r="G15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="Q18" s="47" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="Q18" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="R18" s="48"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="20"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
       <c r="G19" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="50"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="21"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="50"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
       <c r="G21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="51"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="21"/>
       <c r="O22" s="22"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="50"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="G23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="51"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="50"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
       <c r="P24" s="23"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
       <c r="G25" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
       <c r="P26" s="23"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
       <c r="G27" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="50"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
       <c r="P28" s="23"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
       <c r="G29" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="40"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="51"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="50"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="43"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
       <c r="P30" s="23"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="51"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="50"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
       <c r="G31" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="40"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="51"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="50"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="23"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="51"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="50"/>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
       <c r="G33" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="40"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="51"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="50"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
       <c r="P34" s="23"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="51"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="50"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
       <c r="G35" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="40"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="51"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="50"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="23"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="42"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
       <c r="P36" s="23"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="51"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="50"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
       <c r="G37" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="40"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="51"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="50"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="42"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="23"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="54"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="53"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="24"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="40"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="39"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="40"/>
-      <c r="Q40" s="47" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="Q40" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="R40" s="48"/>
+      <c r="R40" s="47"/>
       <c r="S40" s="20"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
       <c r="G41" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="51"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="39"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="50"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="46"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="45"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="23"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="51"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="50"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
       <c r="Q43" s="22"/>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="K44" s="36" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="K44" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="37"/>
+      <c r="L44" s="36"/>
       <c r="M44" s="20"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
       <c r="I45" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="40"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="40"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="39"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
       <c r="I47" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="40"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="39"/>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="40"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="39"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
       <c r="I49" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="40"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="23"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="40"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="39"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
       <c r="I51" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="40"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="39"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="23"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="40"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="39"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
       <c r="I53" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="38"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="40"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="39"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
       <c r="J54" s="23"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="40"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="39"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.4">
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C61" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="20"/>
+      <c r="K61" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L61" s="47"/>
+      <c r="M61" s="20"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C62" s="58"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+      <c r="G62" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" s="48"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="50"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="50"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C64" s="37"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="G64" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64" s="48"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="50"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C65" s="37"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C67" s="37"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="K67" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="L67" s="47"/>
+      <c r="M67" s="20"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="G68" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K68" s="48"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="50"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="50"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C70" s="37"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
+      <c r="G70" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K70" s="48"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="50"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C71" s="37"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C72" s="37"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="K73" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L73" s="47"/>
+      <c r="M73" s="20"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C74" s="37"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="G74" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K74" s="48"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="50"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="50"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C76" s="37"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C77" s="37"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="K77" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="L77" s="47"/>
+      <c r="M77" s="20"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C78" s="37"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="G78" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K78" s="54"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="56"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="50"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C80" s="37"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="G80" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K80" s="48"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="50"/>
+    </row>
+    <row r="81" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C81" s="37"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="53"/>
+    </row>
+    <row r="82" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C82" s="37"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="39"/>
+    </row>
+    <row r="83" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C83" s="37"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="Q83" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="R83" s="47"/>
+      <c r="S83" s="20"/>
+    </row>
+    <row r="84" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="G84" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q84" s="54"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="56"/>
+    </row>
+    <row r="85" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="52"/>
+      <c r="S85" s="53"/>
+    </row>
+    <row r="89" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C89" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="20"/>
+      <c r="K89" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L89" s="47"/>
+      <c r="M89" s="20"/>
+      <c r="T89" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="U89" s="47"/>
+      <c r="V89" s="20"/>
+      <c r="AC89" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD89" s="47"/>
+      <c r="AE89" s="20"/>
+      <c r="AL89" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM89" s="47"/>
+      <c r="AN89" s="20"/>
+    </row>
+    <row r="90" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="66"/>
+      <c r="G90" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K90" s="64"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="66"/>
+      <c r="O90" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="T90" s="64"/>
+      <c r="U90" s="65"/>
+      <c r="V90" s="66"/>
+      <c r="X90" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC90" s="64"/>
+      <c r="AD90" s="65"/>
+      <c r="AE90" s="66"/>
+      <c r="AJ90" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL90" s="64"/>
+      <c r="AM90" s="65"/>
+      <c r="AN90" s="66"/>
+    </row>
+    <row r="91" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="68"/>
+      <c r="V91" s="69"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="70"/>
+      <c r="AD91" s="71"/>
+      <c r="AE91" s="72"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="22"/>
+      <c r="AH91" s="22"/>
+      <c r="AI91" s="22"/>
+      <c r="AJ91" s="22"/>
+      <c r="AK91" s="22"/>
+      <c r="AL91" s="70"/>
+      <c r="AM91" s="71"/>
+      <c r="AN91" s="72"/>
+    </row>
+    <row r="92" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C92" s="67"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="69"/>
+      <c r="G92" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K92" s="67"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="57"/>
+      <c r="O92" s="73"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="73"/>
+      <c r="T92" s="67"/>
+      <c r="U92" s="68"/>
+      <c r="V92" s="69"/>
+    </row>
+    <row r="93" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="71"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="73"/>
+      <c r="P93" s="73"/>
+      <c r="Q93" s="73"/>
+      <c r="R93" s="73"/>
+      <c r="S93" s="73"/>
+      <c r="T93" s="67"/>
+      <c r="U93" s="68"/>
+      <c r="V93" s="69"/>
+    </row>
+    <row r="94" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C94" s="67"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="69"/>
+      <c r="T94" s="67"/>
+      <c r="U94" s="68"/>
+      <c r="V94" s="69"/>
+    </row>
+    <row r="95" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C95" s="67"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="69"/>
+      <c r="K95" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="L95" s="47"/>
+      <c r="M95" s="20"/>
+      <c r="T95" s="67"/>
+      <c r="U95" s="68"/>
+      <c r="V95" s="69"/>
+    </row>
+    <row r="96" spans="3:40" x14ac:dyDescent="0.4">
+      <c r="C96" s="67"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="69"/>
+      <c r="G96" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K96" s="64"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="66"/>
+      <c r="O96" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T96" s="67"/>
+      <c r="U96" s="68"/>
+      <c r="V96" s="69"/>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C97" s="67"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="68"/>
+      <c r="M97" s="69"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="67"/>
+      <c r="U97" s="68"/>
+      <c r="V97" s="69"/>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C98" s="67"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="69"/>
+      <c r="G98" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" s="67"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="69"/>
+      <c r="T98" s="67"/>
+      <c r="U98" s="68"/>
+      <c r="V98" s="69"/>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="72"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="68"/>
+      <c r="V99" s="69"/>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C100" s="67"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="69"/>
+      <c r="T100" s="67"/>
+      <c r="U100" s="68"/>
+      <c r="V100" s="69"/>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C101" s="67"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="69"/>
+      <c r="K101" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L101" s="47"/>
+      <c r="M101" s="20"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="68"/>
+      <c r="V101" s="69"/>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C102" s="67"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="69"/>
+      <c r="G102" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K102" s="64"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="66"/>
+      <c r="O102" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T102" s="67"/>
+      <c r="U102" s="68"/>
+      <c r="V102" s="69"/>
+    </row>
+    <row r="103" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C103" s="67"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="68"/>
+      <c r="M103" s="69"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="67"/>
+      <c r="U103" s="68"/>
+      <c r="V103" s="69"/>
+    </row>
+    <row r="104" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C104" s="67"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="69"/>
+      <c r="G104" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K104" s="67"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="69"/>
+      <c r="T104" s="67"/>
+      <c r="U104" s="68"/>
+      <c r="V104" s="69"/>
+    </row>
+    <row r="105" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="72"/>
+      <c r="T105" s="67"/>
+      <c r="U105" s="68"/>
+      <c r="V105" s="69"/>
+    </row>
+    <row r="106" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C106" s="67"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="69"/>
+      <c r="T106" s="67"/>
+      <c r="U106" s="68"/>
+      <c r="V106" s="69"/>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C107" s="67"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="69"/>
+      <c r="G107" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="T107" s="67"/>
+      <c r="U107" s="68"/>
+      <c r="V107" s="69"/>
+    </row>
+    <row r="108" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C108" s="67"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="67"/>
+      <c r="U108" s="68"/>
+      <c r="V108" s="69"/>
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C109" s="67"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="69"/>
+      <c r="G109" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="T109" s="67"/>
+      <c r="U109" s="68"/>
+      <c r="V109" s="69"/>
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C110" s="67"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="67"/>
+      <c r="U110" s="68"/>
+      <c r="V110" s="69"/>
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C111" s="67"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="69"/>
+      <c r="G111" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="T111" s="67"/>
+      <c r="U111" s="68"/>
+      <c r="V111" s="69"/>
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C112" s="70"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22"/>
+      <c r="S112" s="22"/>
+      <c r="T112" s="70"/>
+      <c r="U112" s="71"/>
+      <c r="V112" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/Environment.xlsx
+++ b/Document/Environment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\GSL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27206E1-D209-4FBD-BAA5-8786858E9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC4FEA5-21F3-4959-B70C-20C180891B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{2B8BF1E6-E496-4F89-BDC8-54DCCB78AA27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
   <si>
     <t>GTS</t>
   </si>
@@ -837,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -890,15 +890,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,15 +973,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1024,7 +1006,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,6 +1022,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5342,1511 +5351,1584 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202F9C68-BA9B-415A-B4F6-E6F10680B109}">
-  <dimension ref="C3:AN112"/>
+  <dimension ref="B3:AR54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO108" sqref="AO107:AO108"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="3.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="1.625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="1.625" style="18" customWidth="1"/>
-    <col min="11" max="13" width="3.625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="1.625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="3.625" style="18" customWidth="1"/>
-    <col min="23" max="23" width="1.625" style="18" customWidth="1"/>
-    <col min="24" max="36" width="3.625" style="18" customWidth="1"/>
-    <col min="37" max="37" width="1.625" style="18" customWidth="1"/>
-    <col min="38" max="41" width="3.625" style="18" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="18"/>
+    <col min="1" max="4" width="3.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="1.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="1.625" style="18" customWidth="1"/>
+    <col min="9" max="11" width="3.625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="1.625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="1.625" style="18" customWidth="1"/>
+    <col min="16" max="18" width="3.625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="1.625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="4.25" style="18" customWidth="1"/>
+    <col min="21" max="23" width="3.625" style="18" customWidth="1"/>
+    <col min="24" max="24" width="1.625" style="18" customWidth="1"/>
+    <col min="25" max="25" width="21.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.625" style="18" customWidth="1"/>
+    <col min="27" max="27" width="1.625" style="18" customWidth="1"/>
+    <col min="28" max="30" width="3.625" style="18" customWidth="1"/>
+    <col min="31" max="31" width="1.625" style="18" customWidth="1"/>
+    <col min="32" max="32" width="18.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.625" style="18" customWidth="1"/>
+    <col min="34" max="34" width="1.625" style="18" customWidth="1"/>
+    <col min="35" max="37" width="3.625" style="18" customWidth="1"/>
+    <col min="38" max="38" width="1.625" style="18" customWidth="1"/>
+    <col min="39" max="39" width="16.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.625" style="18" customWidth="1"/>
+    <col min="41" max="41" width="1.625" style="18" customWidth="1"/>
+    <col min="42" max="44" width="3.625" style="18" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C3" s="33" t="s">
+    <row r="3" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B3" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="20"/>
-      <c r="K3" s="35" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="20"/>
+      <c r="I3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="20"/>
-      <c r="Q3" s="46" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="20"/>
+      <c r="P3" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="20"/>
+      <c r="U3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="33"/>
+      <c r="W3" s="20"/>
+      <c r="AB3" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="20"/>
+      <c r="AI3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="20"/>
+      <c r="AP3" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="20"/>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="54"/>
+      <c r="Y4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="60"/>
+      <c r="AF4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="60"/>
+      <c r="AM4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="60"/>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="63"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="63"/>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="F6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="63"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="36"/>
+      <c r="Y6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="63"/>
+      <c r="AF6" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="51"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="63"/>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="63"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="51"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="63"/>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="F8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="63"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="63"/>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="66"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="63"/>
+      <c r="AI9" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="20"/>
-    </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="G5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50"/>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="G7" s="18" t="s">
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="20"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="63"/>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="63"/>
+      <c r="AF10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="60"/>
+      <c r="AM10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="63"/>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="20"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="63"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="50"/>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="G9" s="18" t="s">
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="63"/>
+      <c r="AF12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="63"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="63"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="47"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="63"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="63"/>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="F14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="18" t="s">
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="36"/>
+      <c r="Y14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="63"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="63"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="63"/>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="47"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="66"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="63"/>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="G13" s="18" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="63"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="63"/>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="47"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="63"/>
+      <c r="AI17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="20"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="63"/>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="G15" s="18" t="s">
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="47"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="63"/>
+      <c r="AF18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="60"/>
+      <c r="AM18" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="63"/>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="47"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="63"/>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="Q18" s="46" t="s">
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="47"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="63"/>
+      <c r="AF20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="63"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="63"/>
+    </row>
+    <row r="21" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="66"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="63"/>
+    </row>
+    <row r="22" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="63"/>
+      <c r="AF22" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="63"/>
+    </row>
+    <row r="23" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="R18" s="47"/>
-      <c r="S18" s="20"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="G19" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="50"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="50"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="G21" s="18" t="s">
+      <c r="Q23" s="44"/>
+      <c r="R23" s="20"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="63"/>
+    </row>
+    <row r="24" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="F24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="50"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="50"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="G23" s="18" t="s">
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="47"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="63"/>
+      <c r="AF24" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="63"/>
+    </row>
+    <row r="25" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="47"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="63"/>
+    </row>
+    <row r="26" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="F26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="50"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="G25" s="18" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="47"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="63"/>
+      <c r="AF26" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="63"/>
+    </row>
+    <row r="27" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="47"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="63"/>
+    </row>
+    <row r="28" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="50"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50"/>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="G27" s="18" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="36"/>
+      <c r="Y28" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="70"/>
+      <c r="AM28" s="70"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="63"/>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="47"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="67"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="63"/>
+    </row>
+    <row r="30" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="F30" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="50"/>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="50"/>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="G29" s="18" t="s">
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="47"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="36"/>
+      <c r="Y30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="70"/>
+      <c r="AN30" s="70"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="63"/>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="67"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="67"/>
+      <c r="AJ31" s="67"/>
+      <c r="AK31" s="67"/>
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="67"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="63"/>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="F32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="50"/>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="G31" s="18" t="s">
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="47"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="63"/>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="47"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="63"/>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="F34" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="50"/>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="50"/>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="G33" s="18" t="s">
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="47"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="63"/>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="47"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36"/>
+      <c r="AB35" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="20"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="68"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="65"/>
+      <c r="AR35" s="66"/>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="F36" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="50"/>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="50"/>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="G35" s="18" t="s">
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="47"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="36"/>
+      <c r="Y36" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="47"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="68"/>
+      <c r="AK36" s="63"/>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="47"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="47"/>
+      <c r="AF37" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="63"/>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="F38" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="39"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="50"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="50"/>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="G37" s="18" t="s">
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="47"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="36"/>
+      <c r="Y38" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="63"/>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="47"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="66"/>
+    </row>
+    <row r="40" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="F40" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="50"/>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="53"/>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39"/>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="Q40" s="46" t="s">
-        <v>96</v>
-      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="36"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="46"/>
       <c r="R40" s="47"/>
-      <c r="S40" s="20"/>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="G41" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="39"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="50"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="50"/>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="K44" s="35" t="s">
+      <c r="U40" s="55"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="57"/>
+    </row>
+    <row r="41" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+    </row>
+    <row r="43" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="I43" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="I45" s="19" t="s">
+      <c r="J43" s="33"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="G44" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="39"/>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="39"/>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
-      <c r="I47" s="19" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="G46" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="39"/>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="I49" s="19" t="s">
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="2:44" x14ac:dyDescent="0.4">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="G48" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="I51" s="19" t="s">
+      <c r="I48" s="34"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="36"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="G50" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="39"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="39"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="I53" s="19" t="s">
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="36"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="G52" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="39"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
       <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="39"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C61" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="20"/>
-      <c r="K61" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="L61" s="47"/>
-      <c r="M61" s="20"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
-      <c r="G62" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K62" s="48"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="50"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="50"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-      <c r="G64" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K64" s="48"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="50"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="53"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39"/>
-      <c r="K67" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="L67" s="47"/>
-      <c r="M67" s="20"/>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="G68" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K68" s="48"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="50"/>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="50"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C70" s="37"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-      <c r="G70" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K70" s="48"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="50"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="53"/>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C73" s="37"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39"/>
-      <c r="K73" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L73" s="47"/>
-      <c r="M73" s="20"/>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C74" s="37"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
-      <c r="G74" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K74" s="48"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="50"/>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C75" s="37"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="50"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C77" s="37"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
-      <c r="K77" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="L77" s="47"/>
-      <c r="M77" s="20"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C78" s="37"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="G78" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K78" s="54"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="56"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C79" s="37"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="50"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C80" s="37"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
-      <c r="G80" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="K80" s="48"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="50"/>
-    </row>
-    <row r="81" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C81" s="37"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="53"/>
-    </row>
-    <row r="82" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C82" s="37"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
-    </row>
-    <row r="83" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C83" s="37"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
-      <c r="Q83" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="R83" s="47"/>
-      <c r="S83" s="20"/>
-    </row>
-    <row r="84" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C84" s="37"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
-      <c r="G84" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="56"/>
-    </row>
-    <row r="85" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C85" s="61"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="51"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="53"/>
-    </row>
-    <row r="89" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C89" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="20"/>
-      <c r="K89" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="L89" s="47"/>
-      <c r="M89" s="20"/>
-      <c r="T89" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="U89" s="47"/>
-      <c r="V89" s="20"/>
-      <c r="AC89" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD89" s="47"/>
-      <c r="AE89" s="20"/>
-      <c r="AL89" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM89" s="47"/>
-      <c r="AN89" s="20"/>
-    </row>
-    <row r="90" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="G90" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K90" s="64"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="66"/>
-      <c r="O90" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="T90" s="64"/>
-      <c r="U90" s="65"/>
-      <c r="V90" s="66"/>
-      <c r="X90" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC90" s="64"/>
-      <c r="AD90" s="65"/>
-      <c r="AE90" s="66"/>
-      <c r="AJ90" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL90" s="64"/>
-      <c r="AM90" s="65"/>
-      <c r="AN90" s="66"/>
-    </row>
-    <row r="91" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="68"/>
-      <c r="V91" s="69"/>
-      <c r="W91" s="21"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="70"/>
-      <c r="AD91" s="71"/>
-      <c r="AE91" s="72"/>
-      <c r="AF91" s="21"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-      <c r="AJ91" s="22"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="70"/>
-      <c r="AM91" s="71"/>
-      <c r="AN91" s="72"/>
-    </row>
-    <row r="92" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C92" s="67"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="69"/>
-      <c r="G92" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="K92" s="67"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="57"/>
-      <c r="O92" s="73"/>
-      <c r="P92" s="73"/>
-      <c r="Q92" s="73"/>
-      <c r="R92" s="73"/>
-      <c r="S92" s="73"/>
-      <c r="T92" s="67"/>
-      <c r="U92" s="68"/>
-      <c r="V92" s="69"/>
-    </row>
-    <row r="93" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="72"/>
-      <c r="N93" s="57"/>
-      <c r="O93" s="73"/>
-      <c r="P93" s="73"/>
-      <c r="Q93" s="73"/>
-      <c r="R93" s="73"/>
-      <c r="S93" s="73"/>
-      <c r="T93" s="67"/>
-      <c r="U93" s="68"/>
-      <c r="V93" s="69"/>
-    </row>
-    <row r="94" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C94" s="67"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69"/>
-      <c r="T94" s="67"/>
-      <c r="U94" s="68"/>
-      <c r="V94" s="69"/>
-    </row>
-    <row r="95" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C95" s="67"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="69"/>
-      <c r="K95" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="L95" s="47"/>
-      <c r="M95" s="20"/>
-      <c r="T95" s="67"/>
-      <c r="U95" s="68"/>
-      <c r="V95" s="69"/>
-    </row>
-    <row r="96" spans="3:40" x14ac:dyDescent="0.4">
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="69"/>
-      <c r="G96" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K96" s="64"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="66"/>
-      <c r="O96" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="T96" s="67"/>
-      <c r="U96" s="68"/>
-      <c r="V96" s="69"/>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C97" s="67"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="67"/>
-      <c r="L97" s="68"/>
-      <c r="M97" s="69"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="67"/>
-      <c r="U97" s="68"/>
-      <c r="V97" s="69"/>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C98" s="67"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="69"/>
-      <c r="G98" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K98" s="67"/>
-      <c r="L98" s="68"/>
-      <c r="M98" s="69"/>
-      <c r="T98" s="67"/>
-      <c r="U98" s="68"/>
-      <c r="V98" s="69"/>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="72"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="68"/>
-      <c r="V99" s="69"/>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
-      <c r="T100" s="67"/>
-      <c r="U100" s="68"/>
-      <c r="V100" s="69"/>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="K101" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="L101" s="47"/>
-      <c r="M101" s="20"/>
-      <c r="T101" s="67"/>
-      <c r="U101" s="68"/>
-      <c r="V101" s="69"/>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="G102" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K102" s="64"/>
-      <c r="L102" s="65"/>
-      <c r="M102" s="66"/>
-      <c r="O102" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="T102" s="67"/>
-      <c r="U102" s="68"/>
-      <c r="V102" s="69"/>
-    </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C103" s="67"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="67"/>
-      <c r="L103" s="68"/>
-      <c r="M103" s="69"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="67"/>
-      <c r="U103" s="68"/>
-      <c r="V103" s="69"/>
-    </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C104" s="67"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="G104" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K104" s="67"/>
-      <c r="L104" s="68"/>
-      <c r="M104" s="69"/>
-      <c r="T104" s="67"/>
-      <c r="U104" s="68"/>
-      <c r="V104" s="69"/>
-    </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C105" s="67"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="72"/>
-      <c r="T105" s="67"/>
-      <c r="U105" s="68"/>
-      <c r="V105" s="69"/>
-    </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C106" s="67"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
-      <c r="T106" s="67"/>
-      <c r="U106" s="68"/>
-      <c r="V106" s="69"/>
-    </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C107" s="67"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="69"/>
-      <c r="G107" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="T107" s="67"/>
-      <c r="U107" s="68"/>
-      <c r="V107" s="69"/>
-    </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C108" s="67"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="67"/>
-      <c r="U108" s="68"/>
-      <c r="V108" s="69"/>
-    </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C109" s="67"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="69"/>
-      <c r="G109" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="T109" s="67"/>
-      <c r="U109" s="68"/>
-      <c r="V109" s="69"/>
-    </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C110" s="67"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="67"/>
-      <c r="U110" s="68"/>
-      <c r="V110" s="69"/>
-    </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C111" s="67"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="69"/>
-      <c r="G111" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="T111" s="67"/>
-      <c r="U111" s="68"/>
-      <c r="V111" s="69"/>
-    </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C112" s="70"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="70"/>
-      <c r="U112" s="71"/>
-      <c r="V112" s="72"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
